--- a/BackTest/2019-10-29 BackTest MTL.xlsx
+++ b/BackTest/2019-10-29 BackTest MTL.xlsx
@@ -1886,13 +1886,17 @@
         <v>406.15</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>403</v>
+      </c>
+      <c r="K43" t="n">
+        <v>403</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1927,8 +1931,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>403</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>403</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -5879,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -5914,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -5949,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -5984,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6019,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6054,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6089,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6124,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6159,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -7664,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -7699,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -7734,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -13926,13 +13942,17 @@
         <v>398.9</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>398</v>
+      </c>
+      <c r="K387" t="n">
+        <v>398</v>
+      </c>
       <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
@@ -13967,8 +13987,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>398</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -13996,14 +14022,22 @@
         <v>398.4</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>395</v>
+      </c>
+      <c r="K389" t="n">
+        <v>398</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14031,14 +14065,22 @@
         <v>398.05</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>396</v>
+      </c>
+      <c r="K390" t="n">
+        <v>398</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14066,14 +14108,22 @@
         <v>397.75</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>396</v>
+      </c>
+      <c r="K391" t="n">
+        <v>398</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14107,8 +14157,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>398</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14142,8 +14198,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>398</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14177,8 +14239,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>398</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14212,8 +14280,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>398</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14247,8 +14321,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>398</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14282,8 +14362,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>398</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14317,8 +14403,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>398</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14352,8 +14444,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>398</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14387,8 +14485,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>398</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14422,8 +14526,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>398</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14457,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>398</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14492,8 +14608,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>398</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14521,14 +14643,22 @@
         <v>393.75</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>390</v>
+      </c>
+      <c r="K404" t="n">
+        <v>398</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14556,14 +14686,22 @@
         <v>393.5</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>391</v>
+      </c>
+      <c r="K405" t="n">
+        <v>398</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14591,14 +14729,22 @@
         <v>393.1</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>389</v>
+      </c>
+      <c r="K406" t="n">
+        <v>398</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14626,14 +14772,22 @@
         <v>392.8</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>388</v>
+      </c>
+      <c r="K407" t="n">
+        <v>398</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14661,14 +14815,22 @@
         <v>392.7</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>391</v>
+      </c>
+      <c r="K408" t="n">
+        <v>398</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14702,8 +14864,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>398</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14737,8 +14905,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>398</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14772,8 +14946,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>398</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14807,8 +14987,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>398</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +15028,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>398</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -14871,18 +15063,20 @@
         <v>391.4</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>391</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>391</v>
-      </c>
-      <c r="L414" t="inlineStr"/>
+        <v>398</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14910,20 +15104,18 @@
         <v>391.15</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>391</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M415" t="n">
@@ -14953,16 +15145,14 @@
         <v>390.9</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>389</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -14996,16 +15186,14 @@
         <v>390.8</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>391</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -15039,16 +15227,14 @@
         <v>390.75</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>390</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -15082,16 +15268,14 @@
         <v>390.8</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>391</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -15125,16 +15309,14 @@
         <v>391</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>394</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -15168,16 +15350,14 @@
         <v>391.2</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>394</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -15211,16 +15391,14 @@
         <v>391.25</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>393</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -15254,16 +15432,14 @@
         <v>391.35</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>394</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -15297,16 +15473,14 @@
         <v>391.6</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>394</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -15340,16 +15514,14 @@
         <v>391.7</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>393</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -15383,16 +15555,14 @@
         <v>392.3</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>402</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -15433,7 +15603,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -15474,7 +15644,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -15515,7 +15685,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -15556,7 +15726,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -15597,7 +15767,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -15638,7 +15808,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -15679,7 +15849,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -15720,7 +15890,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -15761,7 +15931,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -15802,7 +15972,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -15843,7 +16013,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -15884,7 +16054,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -15925,7 +16095,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -15966,7 +16136,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -16007,7 +16177,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -16048,7 +16218,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -16089,7 +16259,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -16130,7 +16300,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -16171,7 +16341,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -16212,7 +16382,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -16253,7 +16423,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -16294,7 +16464,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -16335,7 +16505,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -16376,7 +16546,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -16417,7 +16587,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -16458,7 +16628,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -16499,7 +16669,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -16540,7 +16710,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -16581,7 +16751,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -16622,7 +16792,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -16663,7 +16833,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -16704,7 +16874,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -16745,7 +16915,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -16786,7 +16956,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -16820,16 +16990,14 @@
         <v>394.8</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>392</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -16863,16 +17031,14 @@
         <v>394.5</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>392</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -16906,16 +17072,14 @@
         <v>394.25</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>392</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -16949,16 +17113,14 @@
         <v>393.95</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>392</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -16992,16 +17154,14 @@
         <v>393.65</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>391</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -17035,16 +17195,14 @@
         <v>393.35</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>391</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -17078,16 +17236,14 @@
         <v>393.05</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>391</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -17121,16 +17277,14 @@
         <v>392.9</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>393</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -17173,7 +17327,7 @@
         <v>393</v>
       </c>
       <c r="K469" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -17216,7 +17370,7 @@
         <v>393</v>
       </c>
       <c r="K470" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -17250,16 +17404,14 @@
         <v>392.1</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>392</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -17293,16 +17445,14 @@
         <v>392.05</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>392</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -17336,16 +17486,14 @@
         <v>391.95</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>391</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -17379,16 +17527,14 @@
         <v>391.95</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>391</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -17422,16 +17568,14 @@
         <v>392.05</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>393</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -17465,16 +17609,14 @@
         <v>391.95</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>392</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -17508,16 +17650,14 @@
         <v>392.05</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>393</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -17551,16 +17691,14 @@
         <v>392.05</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>392</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -17594,16 +17732,14 @@
         <v>392.05</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>393</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -17637,16 +17773,14 @@
         <v>391.95</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>390</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -17680,16 +17814,14 @@
         <v>392</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>393</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -17723,16 +17855,14 @@
         <v>392.05</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>393</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -17766,16 +17896,14 @@
         <v>391.95</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>390</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -17809,16 +17937,14 @@
         <v>391.85</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>390</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -17852,16 +17978,14 @@
         <v>391.85</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>391</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -17895,16 +18019,14 @@
         <v>391.85</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>391</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -17938,16 +18060,14 @@
         <v>391.85</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>391</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -17981,16 +18101,14 @@
         <v>391.7</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>390</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -18024,16 +18142,14 @@
         <v>391.55</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>390</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -18067,16 +18183,14 @@
         <v>391.4</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>390</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -18110,16 +18224,14 @@
         <v>391.3</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>390</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -18153,16 +18265,14 @@
         <v>391.25</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>391</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -18196,16 +18306,14 @@
         <v>391.2</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>390</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -18239,16 +18347,14 @@
         <v>391.1</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>389</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -18282,16 +18388,14 @@
         <v>390.95</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>390</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -18325,16 +18429,14 @@
         <v>390.8</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>389</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -18368,16 +18470,14 @@
         <v>390.6</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>389</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -18411,16 +18511,14 @@
         <v>390.45</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>389</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -18454,16 +18552,14 @@
         <v>390.4</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>392</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -18497,16 +18593,14 @@
         <v>390.5</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>392</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -18540,16 +18634,14 @@
         <v>390.45</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>392</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -18583,16 +18675,14 @@
         <v>390.4</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>392</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -18626,16 +18716,14 @@
         <v>390.5</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>392</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -18669,16 +18757,14 @@
         <v>390.45</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>389</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -18712,16 +18798,14 @@
         <v>390.4</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>390</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -18755,16 +18839,14 @@
         <v>390.35</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>390</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -18798,16 +18880,14 @@
         <v>390.35</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>391</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -18841,16 +18921,14 @@
         <v>390.6</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>395</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -18884,16 +18962,14 @@
         <v>390.7</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>392</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -18927,16 +19003,14 @@
         <v>390.75</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>391</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -18970,16 +19044,14 @@
         <v>391</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>395</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -19013,16 +19085,14 @@
         <v>391.2</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>395</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -19056,16 +19126,14 @@
         <v>391.25</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>391</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -19099,16 +19167,14 @@
         <v>391.4</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
       </c>
-      <c r="J514" t="n">
-        <v>392</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -19142,16 +19208,14 @@
         <v>391.65</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
       </c>
-      <c r="J515" t="n">
-        <v>395</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -19185,16 +19249,14 @@
         <v>391.95</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
       </c>
-      <c r="J516" t="n">
-        <v>395</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -19228,16 +19290,14 @@
         <v>392.2</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>394</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -19271,16 +19331,14 @@
         <v>392.3</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>391</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -19314,16 +19372,14 @@
         <v>392.3</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>392</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -19357,16 +19413,14 @@
         <v>392.25</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>391</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -19400,16 +19454,14 @@
         <v>392.3</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>393</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -19443,16 +19495,14 @@
         <v>392.4</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>394</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -19486,16 +19536,14 @@
         <v>392.3</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>390</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -19529,16 +19577,14 @@
         <v>392.3</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>389</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -19579,7 +19625,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -19613,16 +19659,14 @@
         <v>392.5</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>392</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -19656,16 +19700,14 @@
         <v>392.6</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>393</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -19699,16 +19741,14 @@
         <v>392.55</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>394</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -19742,16 +19782,14 @@
         <v>392.65</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>394</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -19785,16 +19823,14 @@
         <v>392.8</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>394</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -19828,16 +19864,14 @@
         <v>392.65</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>392</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -19871,16 +19905,14 @@
         <v>392.6</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>394</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -19914,16 +19946,14 @@
         <v>392.65</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>392</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -19957,16 +19987,14 @@
         <v>392.7</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>393</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -20000,16 +20028,14 @@
         <v>392.6</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>393</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -20043,16 +20069,14 @@
         <v>392.5</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>393</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -20086,16 +20110,14 @@
         <v>392.45</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>393</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -20129,16 +20151,14 @@
         <v>392.55</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>393</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -20172,16 +20192,14 @@
         <v>392.55</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>392</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -20215,16 +20233,14 @@
         <v>392.65</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>393</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -20258,16 +20274,14 @@
         <v>392.65</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="n">
-        <v>393</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -20301,16 +20315,14 @@
         <v>392.55</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>392</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -20344,16 +20356,14 @@
         <v>392.6</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>391</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -20387,16 +20397,14 @@
         <v>392.65</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>390</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -20430,16 +20438,14 @@
         <v>392.6</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>391</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -20473,16 +20479,14 @@
         <v>392.55</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="n">
-        <v>391</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -20516,16 +20520,14 @@
         <v>392.35</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>389</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -20559,16 +20561,14 @@
         <v>392.05</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>388</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -20602,16 +20602,14 @@
         <v>391.8</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>389</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -20645,16 +20643,14 @@
         <v>391.75</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>393</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -20688,16 +20684,14 @@
         <v>391.7</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>391</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -20731,16 +20725,14 @@
         <v>391.65</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>393</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -20774,16 +20766,14 @@
         <v>391.65</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>392</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -20817,16 +20807,14 @@
         <v>391.55</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>391</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -20860,16 +20848,14 @@
         <v>391.45</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>391</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -20903,16 +20889,14 @@
         <v>391.3</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>390</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -20946,16 +20930,14 @@
         <v>391.1</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>389</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -20989,16 +20971,14 @@
         <v>390.95</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>390</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -21032,16 +21012,14 @@
         <v>390.95</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>392</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -21075,16 +21053,14 @@
         <v>390.8</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>390</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -21118,16 +21094,14 @@
         <v>390.65</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>390</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -21161,16 +21135,14 @@
         <v>390.65</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>392</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -21204,16 +21176,14 @@
         <v>390.7</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>392</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -21247,16 +21217,14 @@
         <v>390.8</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>392</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -21290,16 +21258,14 @@
         <v>390.9</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>393</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -21333,16 +21299,14 @@
         <v>391</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>393</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -21376,16 +21340,14 @@
         <v>391.2</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>393</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -21419,16 +21381,14 @@
         <v>391.5</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>394</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -21462,16 +21422,14 @@
         <v>391.6</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>391</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -21505,16 +21463,14 @@
         <v>391.55</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>392</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -21548,16 +21504,14 @@
         <v>391.55</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>391</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -21591,16 +21545,14 @@
         <v>391.35</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>389</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -21634,16 +21586,14 @@
         <v>391.3</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>391</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -21677,16 +21627,14 @@
         <v>391.3</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>391</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -21720,16 +21668,14 @@
         <v>391.35</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>392</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -21763,16 +21709,14 @@
         <v>391.55</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>394</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -21806,16 +21750,14 @@
         <v>391.75</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>393</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -21849,16 +21791,14 @@
         <v>391.9</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>393</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -21892,16 +21832,14 @@
         <v>391.9</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>392</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -21935,16 +21873,14 @@
         <v>392</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>392</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -21978,16 +21914,14 @@
         <v>392.1</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>392</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -22021,16 +21955,14 @@
         <v>392.2</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>394</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -22064,16 +21996,14 @@
         <v>392.3</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>394</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -22107,16 +22037,14 @@
         <v>392.4</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>394</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -22150,16 +22078,14 @@
         <v>392.45</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>394</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -22193,16 +22119,14 @@
         <v>392.55</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>395</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -22236,16 +22160,14 @@
         <v>392.55</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>393</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -22279,16 +22201,14 @@
         <v>392.55</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>394</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -22322,16 +22242,14 @@
         <v>392.6</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>392</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -22365,16 +22283,14 @@
         <v>392.55</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>391</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -22408,16 +22324,14 @@
         <v>392.65</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>393</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -22451,16 +22365,14 @@
         <v>392.85</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>393</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -22494,16 +22406,14 @@
         <v>392.95</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="n">
-        <v>393</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -22537,16 +22447,14 @@
         <v>393.05</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="n">
-        <v>393</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -22580,16 +22488,14 @@
         <v>393.05</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="n">
-        <v>392</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -22623,16 +22529,14 @@
         <v>392.9</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="n">
-        <v>391</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -22666,16 +22570,14 @@
         <v>392.85</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="n">
-        <v>392</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -22709,16 +22611,14 @@
         <v>392.8</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="n">
-        <v>392</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -22752,16 +22652,14 @@
         <v>392.8</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="n">
-        <v>392</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -22795,16 +22693,14 @@
         <v>392.9</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="n">
-        <v>394</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -22838,16 +22734,14 @@
         <v>392.95</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="n">
-        <v>393</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -22881,16 +22775,14 @@
         <v>392.85</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="n">
-        <v>392</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -22924,16 +22816,14 @@
         <v>392.7</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="n">
-        <v>391</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -22967,16 +22857,14 @@
         <v>392.6</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
       </c>
-      <c r="J604" t="n">
-        <v>392</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -23010,16 +22898,14 @@
         <v>392.5</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="n">
-        <v>392</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -23053,16 +22939,14 @@
         <v>392.35</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
       </c>
-      <c r="J606" t="n">
-        <v>392</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -23096,16 +22980,14 @@
         <v>392.25</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
       </c>
-      <c r="J607" t="n">
-        <v>391</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -23139,16 +23021,14 @@
         <v>392.15</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
       </c>
-      <c r="J608" t="n">
-        <v>392</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -23182,16 +23062,14 @@
         <v>392.15</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
       </c>
-      <c r="J609" t="n">
-        <v>392</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -23225,16 +23103,14 @@
         <v>392.2</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="n">
-        <v>392</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -23268,16 +23144,14 @@
         <v>392.15</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="n">
-        <v>392</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -23311,16 +23185,14 @@
         <v>392</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="n">
-        <v>390</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -23354,16 +23226,14 @@
         <v>391.95</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
       </c>
-      <c r="J613" t="n">
-        <v>392</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -23397,16 +23267,14 @@
         <v>391.9</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="n">
-        <v>392</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -23440,16 +23308,14 @@
         <v>391.95</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
       </c>
-      <c r="J615" t="n">
-        <v>393</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -23483,16 +23349,14 @@
         <v>392.05</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
       </c>
-      <c r="J616" t="n">
-        <v>393</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -23526,16 +23390,14 @@
         <v>392.1</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
       </c>
-      <c r="J617" t="n">
-        <v>393</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -23569,16 +23431,14 @@
         <v>392.15</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="n">
-        <v>393</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -23612,16 +23472,14 @@
         <v>392.2</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="n">
-        <v>393</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -23655,16 +23513,14 @@
         <v>392.05</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="n">
-        <v>391</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -23698,16 +23554,14 @@
         <v>392.05</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="n">
-        <v>393</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
@@ -23741,16 +23595,14 @@
         <v>392</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
       </c>
-      <c r="J622" t="n">
-        <v>391</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L622" t="inlineStr">
         <is>
@@ -23784,16 +23636,14 @@
         <v>391.95</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
       </c>
-      <c r="J623" t="n">
-        <v>390</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L623" t="inlineStr">
         <is>
@@ -23834,7 +23684,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L624" t="inlineStr">
         <is>
@@ -23868,16 +23718,14 @@
         <v>391.8</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
       </c>
-      <c r="J625" t="n">
-        <v>390</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L625" t="inlineStr">
         <is>
@@ -23911,16 +23759,14 @@
         <v>391.75</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
       </c>
-      <c r="J626" t="n">
-        <v>391</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L626" t="inlineStr">
         <is>
@@ -23954,16 +23800,14 @@
         <v>391.75</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
       </c>
-      <c r="J627" t="n">
-        <v>391</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L627" t="inlineStr">
         <is>
@@ -23997,16 +23841,14 @@
         <v>391.7</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
       </c>
-      <c r="J628" t="n">
-        <v>391</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L628" t="inlineStr">
         <is>
@@ -24040,16 +23882,14 @@
         <v>391.7</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
       </c>
-      <c r="J629" t="n">
-        <v>392</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L629" t="inlineStr">
         <is>
@@ -24083,16 +23923,14 @@
         <v>391.7</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
       </c>
-      <c r="J630" t="n">
-        <v>392</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L630" t="inlineStr">
         <is>
@@ -24126,16 +23964,14 @@
         <v>391.7</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
       </c>
-      <c r="J631" t="n">
-        <v>392</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L631" t="inlineStr">
         <is>
@@ -24169,16 +24005,14 @@
         <v>391.8</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
       </c>
-      <c r="J632" t="n">
-        <v>392</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L632" t="inlineStr">
         <is>
@@ -24212,16 +24046,14 @@
         <v>391.9</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
       </c>
-      <c r="J633" t="n">
-        <v>394</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L633" t="inlineStr">
         <is>
@@ -24255,16 +24087,14 @@
         <v>392.05</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
       </c>
-      <c r="J634" t="n">
-        <v>395</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L634" t="inlineStr">
         <is>
@@ -24298,16 +24128,14 @@
         <v>392.15</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="n">
-        <v>395</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L635" t="inlineStr">
         <is>
@@ -24341,16 +24169,14 @@
         <v>392.25</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
       </c>
-      <c r="J636" t="n">
-        <v>395</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L636" t="inlineStr">
         <is>
@@ -24384,16 +24210,14 @@
         <v>392.35</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>395</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L637" t="inlineStr">
         <is>
@@ -24427,16 +24251,14 @@
         <v>392.45</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>395</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L638" t="inlineStr">
         <is>
@@ -24470,16 +24292,14 @@
         <v>392.45</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>393</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L639" t="inlineStr">
         <is>
@@ -24513,16 +24333,14 @@
         <v>392.65</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>395</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L640" t="inlineStr">
         <is>
@@ -24556,16 +24374,14 @@
         <v>392.75</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>395</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L641" t="inlineStr">
         <is>
@@ -24599,16 +24415,14 @@
         <v>393</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>396</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L642" t="inlineStr">
         <is>
@@ -24649,7 +24463,7 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L643" t="inlineStr">
         <is>
@@ -24690,7 +24504,7 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L644" t="inlineStr">
         <is>
@@ -24731,7 +24545,7 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
@@ -24772,7 +24586,7 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
@@ -24813,7 +24627,7 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
@@ -24854,7 +24668,7 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
@@ -24895,7 +24709,7 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
@@ -24936,7 +24750,7 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
@@ -24977,7 +24791,7 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
@@ -25018,7 +24832,7 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L652" t="inlineStr">
         <is>
@@ -25059,7 +24873,7 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L653" t="inlineStr">
         <is>
@@ -25100,7 +24914,7 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L654" t="inlineStr">
         <is>
@@ -25141,7 +24955,7 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L655" t="inlineStr">
         <is>
@@ -25182,7 +24996,7 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L656" t="inlineStr">
         <is>
@@ -25223,7 +25037,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L657" t="inlineStr">
         <is>
@@ -25264,7 +25078,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L658" t="inlineStr">
         <is>
@@ -25305,7 +25119,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L659" t="inlineStr">
         <is>
@@ -25346,7 +25160,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L660" t="inlineStr">
         <is>
@@ -25387,7 +25201,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L661" t="inlineStr">
         <is>
@@ -25428,7 +25242,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L662" t="inlineStr">
         <is>
@@ -25469,7 +25283,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L663" t="inlineStr">
         <is>
@@ -25510,7 +25324,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L664" t="inlineStr">
         <is>
@@ -25551,7 +25365,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L665" t="inlineStr">
         <is>
@@ -25592,7 +25406,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L666" t="inlineStr">
         <is>
@@ -25633,7 +25447,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L667" t="inlineStr">
         <is>
@@ -25674,7 +25488,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L668" t="inlineStr">
         <is>
@@ -25715,7 +25529,7 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L669" t="inlineStr">
         <is>
@@ -25756,7 +25570,7 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L670" t="inlineStr">
         <is>
@@ -25797,7 +25611,7 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L671" t="inlineStr">
         <is>
@@ -25838,7 +25652,7 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L672" t="inlineStr">
         <is>
@@ -25879,7 +25693,7 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L673" t="inlineStr">
         <is>
@@ -25920,7 +25734,7 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L674" t="inlineStr">
         <is>
@@ -25961,7 +25775,7 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L675" t="inlineStr">
         <is>
@@ -26002,7 +25816,7 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L676" t="inlineStr">
         <is>
@@ -26043,7 +25857,7 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L677" t="inlineStr">
         <is>
@@ -26084,7 +25898,7 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L678" t="inlineStr">
         <is>
@@ -26125,7 +25939,7 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L679" t="inlineStr">
         <is>
@@ -26166,7 +25980,7 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L680" t="inlineStr">
         <is>
@@ -26207,7 +26021,7 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L681" t="inlineStr">
         <is>
@@ -26248,7 +26062,7 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L682" t="inlineStr">
         <is>
@@ -26289,7 +26103,7 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L683" t="inlineStr">
         <is>
@@ -26330,7 +26144,7 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L684" t="inlineStr">
         <is>
@@ -26371,7 +26185,7 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L685" t="inlineStr">
         <is>
@@ -26412,7 +26226,7 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L686" t="inlineStr">
         <is>
@@ -26453,7 +26267,7 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L687" t="inlineStr">
         <is>
@@ -26494,7 +26308,7 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L688" t="inlineStr">
         <is>
@@ -26535,7 +26349,7 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L689" t="inlineStr">
         <is>
@@ -26576,7 +26390,7 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L690" t="inlineStr">
         <is>
@@ -26617,7 +26431,7 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L691" t="inlineStr">
         <is>
@@ -26658,7 +26472,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L692" t="inlineStr">
         <is>
@@ -26699,7 +26513,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L693" t="inlineStr">
         <is>
@@ -26740,7 +26554,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L694" t="inlineStr">
         <is>
@@ -26781,7 +26595,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L695" t="inlineStr">
         <is>
@@ -26822,7 +26636,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L696" t="inlineStr">
         <is>
@@ -26863,7 +26677,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L697" t="inlineStr">
         <is>
@@ -26904,7 +26718,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L698" t="inlineStr">
         <is>
@@ -26945,7 +26759,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L699" t="inlineStr">
         <is>
@@ -26986,7 +26800,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L700" t="inlineStr">
         <is>
@@ -27027,7 +26841,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L701" t="inlineStr">
         <is>
@@ -27068,7 +26882,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L702" t="inlineStr">
         <is>
@@ -27109,7 +26923,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L703" t="inlineStr">
         <is>
@@ -27150,7 +26964,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L704" t="inlineStr">
         <is>
@@ -27191,7 +27005,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L705" t="inlineStr">
         <is>
@@ -27232,7 +27046,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L706" t="inlineStr">
         <is>
@@ -27273,7 +27087,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L707" t="inlineStr">
         <is>
@@ -27314,7 +27128,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L708" t="inlineStr">
         <is>
@@ -27355,7 +27169,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L709" t="inlineStr">
         <is>
@@ -27396,7 +27210,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L710" t="inlineStr">
         <is>
@@ -27437,7 +27251,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L711" t="inlineStr">
         <is>
@@ -27478,7 +27292,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L712" t="inlineStr">
         <is>
@@ -27519,7 +27333,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L713" t="inlineStr">
         <is>
@@ -27560,7 +27374,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L714" t="inlineStr">
         <is>
@@ -27601,7 +27415,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L715" t="inlineStr">
         <is>
@@ -27642,7 +27456,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L716" t="inlineStr">
         <is>
@@ -27683,7 +27497,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L717" t="inlineStr">
         <is>
@@ -27724,7 +27538,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L718" t="inlineStr">
         <is>
@@ -27765,7 +27579,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L719" t="inlineStr">
         <is>
@@ -27806,7 +27620,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L720" t="inlineStr">
         <is>
@@ -27847,7 +27661,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L721" t="inlineStr">
         <is>
@@ -27888,7 +27702,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L722" t="inlineStr">
         <is>
@@ -27929,7 +27743,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L723" t="inlineStr">
         <is>
@@ -27970,7 +27784,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L724" t="inlineStr">
         <is>
@@ -28011,7 +27825,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L725" t="inlineStr">
         <is>
@@ -28052,7 +27866,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L726" t="inlineStr">
         <is>
@@ -28093,7 +27907,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L727" t="inlineStr">
         <is>
@@ -28134,7 +27948,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L728" t="inlineStr">
         <is>
@@ -28175,7 +27989,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L729" t="inlineStr">
         <is>
@@ -28216,7 +28030,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L730" t="inlineStr">
         <is>
@@ -28257,7 +28071,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L731" t="inlineStr">
         <is>
@@ -28298,7 +28112,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L732" t="inlineStr">
         <is>
@@ -28339,7 +28153,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L733" t="inlineStr">
         <is>
@@ -28380,7 +28194,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L734" t="inlineStr">
         <is>
@@ -28421,7 +28235,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L735" t="inlineStr">
         <is>
@@ -28462,7 +28276,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L736" t="inlineStr">
         <is>
@@ -28503,7 +28317,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L737" t="inlineStr">
         <is>
@@ -28544,7 +28358,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L738" t="inlineStr">
         <is>
@@ -28585,7 +28399,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L739" t="inlineStr">
         <is>
@@ -28626,7 +28440,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L740" t="inlineStr">
         <is>
@@ -28667,7 +28481,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L741" t="inlineStr">
         <is>
@@ -28708,7 +28522,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L742" t="inlineStr">
         <is>
@@ -28749,7 +28563,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L743" t="inlineStr">
         <is>
@@ -28790,7 +28604,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L744" t="inlineStr">
         <is>
@@ -28831,7 +28645,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L745" t="inlineStr">
         <is>
@@ -28872,7 +28686,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L746" t="inlineStr">
         <is>
@@ -28913,7 +28727,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L747" t="inlineStr">
         <is>
@@ -28954,7 +28768,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L748" t="inlineStr">
         <is>
@@ -28995,7 +28809,7 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L749" t="inlineStr">
         <is>
@@ -29036,7 +28850,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L750" t="inlineStr">
         <is>
@@ -29077,7 +28891,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L751" t="inlineStr">
         <is>
@@ -29118,7 +28932,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L752" t="inlineStr">
         <is>
@@ -29159,7 +28973,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L753" t="inlineStr">
         <is>
@@ -29200,7 +29014,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L754" t="inlineStr">
         <is>
@@ -29241,7 +29055,7 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L755" t="inlineStr">
         <is>
@@ -29282,7 +29096,7 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L756" t="inlineStr">
         <is>
@@ -29323,7 +29137,7 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L757" t="inlineStr">
         <is>
@@ -29364,7 +29178,7 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L758" t="inlineStr">
         <is>
@@ -29405,7 +29219,7 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L759" t="inlineStr">
         <is>
@@ -29446,7 +29260,7 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L760" t="inlineStr">
         <is>
@@ -29487,7 +29301,7 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L761" t="inlineStr">
         <is>
@@ -29528,7 +29342,7 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L762" t="inlineStr">
         <is>
@@ -29569,7 +29383,7 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L763" t="inlineStr">
         <is>
@@ -29610,7 +29424,7 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L764" t="inlineStr">
         <is>
@@ -29651,7 +29465,7 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L765" t="inlineStr">
         <is>
@@ -29692,7 +29506,7 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L766" t="inlineStr">
         <is>
@@ -29733,7 +29547,7 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L767" t="inlineStr">
         <is>
@@ -29774,7 +29588,7 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L768" t="inlineStr">
         <is>
@@ -29815,7 +29629,7 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L769" t="inlineStr">
         <is>
@@ -29856,7 +29670,7 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L770" t="inlineStr">
         <is>
@@ -29897,7 +29711,7 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L771" t="inlineStr">
         <is>
@@ -29938,7 +29752,7 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L772" t="inlineStr">
         <is>
@@ -29979,7 +29793,7 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L773" t="inlineStr">
         <is>
@@ -30020,7 +29834,7 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L774" t="inlineStr">
         <is>
@@ -30061,7 +29875,7 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L775" t="inlineStr">
         <is>
@@ -30102,7 +29916,7 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L776" t="inlineStr">
         <is>
@@ -30143,7 +29957,7 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L777" t="inlineStr">
         <is>
@@ -30184,7 +29998,7 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L778" t="inlineStr">
         <is>
@@ -30225,7 +30039,7 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L779" t="inlineStr">
         <is>
@@ -30266,7 +30080,7 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L780" t="inlineStr">
         <is>
@@ -30307,7 +30121,7 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L781" t="inlineStr">
         <is>
@@ -30348,7 +30162,7 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L782" t="inlineStr">
         <is>
@@ -30389,7 +30203,7 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L783" t="inlineStr">
         <is>
@@ -30430,7 +30244,7 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L784" t="inlineStr">
         <is>
@@ -30471,7 +30285,7 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L785" t="inlineStr">
         <is>
@@ -30512,7 +30326,7 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L786" t="inlineStr">
         <is>
@@ -30553,7 +30367,7 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L787" t="inlineStr">
         <is>
@@ -30594,7 +30408,7 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L788" t="inlineStr">
         <is>
@@ -30635,7 +30449,7 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L789" t="inlineStr">
         <is>
@@ -30676,7 +30490,7 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L790" t="inlineStr">
         <is>
@@ -30717,7 +30531,7 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L791" t="inlineStr">
         <is>
@@ -30758,7 +30572,7 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L792" t="inlineStr">
         <is>
@@ -30799,7 +30613,7 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L793" t="inlineStr">
         <is>
@@ -30840,7 +30654,7 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L794" t="inlineStr">
         <is>
@@ -30881,7 +30695,7 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L795" t="inlineStr">
         <is>
@@ -30922,7 +30736,7 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L796" t="inlineStr">
         <is>
@@ -30963,7 +30777,7 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L797" t="inlineStr">
         <is>
@@ -31004,7 +30818,7 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L798" t="inlineStr">
         <is>
@@ -31045,7 +30859,7 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L799" t="inlineStr">
         <is>
@@ -31086,7 +30900,7 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L800" t="inlineStr">
         <is>
@@ -31123,19 +30937,19 @@
         <v>0</v>
       </c>
       <c r="I801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="n">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>1.038478260869565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -31167,8 +30981,14 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>398</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -31199,11 +31019,17 @@
         <v>0</v>
       </c>
       <c r="I803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>398</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -31234,11 +31060,17 @@
         <v>0</v>
       </c>
       <c r="I804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>398</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -31269,11 +31101,17 @@
         <v>0</v>
       </c>
       <c r="I805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>398</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -31304,11 +31142,17 @@
         <v>0</v>
       </c>
       <c r="I806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>398</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -31339,11 +31183,17 @@
         <v>0</v>
       </c>
       <c r="I807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>398</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -31374,11 +31224,17 @@
         <v>0</v>
       </c>
       <c r="I808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>398</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -31409,11 +31265,17 @@
         <v>0</v>
       </c>
       <c r="I809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>398</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -31444,11 +31306,17 @@
         <v>0</v>
       </c>
       <c r="I810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>398</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -31479,11 +31347,17 @@
         <v>0</v>
       </c>
       <c r="I811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>398</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -31514,11 +31388,17 @@
         <v>0</v>
       </c>
       <c r="I812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>398</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -31552,8 +31432,14 @@
         <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>398</v>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -31587,8 +31473,14 @@
         <v>0</v>
       </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>398</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -31622,8 +31514,14 @@
         <v>0</v>
       </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>398</v>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -31657,8 +31555,14 @@
         <v>0</v>
       </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>398</v>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -31692,8 +31596,14 @@
         <v>0</v>
       </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>398</v>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -31727,8 +31637,14 @@
         <v>0</v>
       </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="K818" t="n">
+        <v>398</v>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -31762,8 +31678,14 @@
         <v>0</v>
       </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="K819" t="n">
+        <v>398</v>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -31797,8 +31719,14 @@
         <v>0</v>
       </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="K820" t="n">
+        <v>398</v>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -31832,8 +31760,14 @@
         <v>0</v>
       </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="K821" t="n">
+        <v>398</v>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -31867,8 +31801,14 @@
         <v>0</v>
       </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="K822" t="n">
+        <v>398</v>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -31902,8 +31842,14 @@
         <v>0</v>
       </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="K823" t="n">
+        <v>398</v>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -31937,8 +31883,14 @@
         <v>0</v>
       </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="K824" t="n">
+        <v>398</v>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -31972,8 +31924,14 @@
         <v>0</v>
       </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="K825" t="n">
+        <v>398</v>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -32007,8 +31965,14 @@
         <v>0</v>
       </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="K826" t="n">
+        <v>398</v>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -32042,8 +32006,14 @@
         <v>0</v>
       </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="K827" t="n">
+        <v>398</v>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -32077,8 +32047,14 @@
         <v>0</v>
       </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="K828" t="n">
+        <v>398</v>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -32112,8 +32088,14 @@
         <v>0</v>
       </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="K829" t="n">
+        <v>398</v>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -32147,8 +32129,14 @@
         <v>0</v>
       </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="K830" t="n">
+        <v>398</v>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -32182,8 +32170,14 @@
         <v>0</v>
       </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="K831" t="n">
+        <v>398</v>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -32217,8 +32211,14 @@
         <v>0</v>
       </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="K832" t="n">
+        <v>398</v>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -32252,8 +32252,14 @@
         <v>0</v>
       </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="K833" t="n">
+        <v>398</v>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -32287,8 +32293,14 @@
         <v>0</v>
       </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="K834" t="n">
+        <v>398</v>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -32322,8 +32334,14 @@
         <v>0</v>
       </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
+      <c r="K835" t="n">
+        <v>398</v>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -32357,8 +32375,14 @@
         <v>0</v>
       </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
+      <c r="K836" t="n">
+        <v>398</v>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -32392,8 +32416,14 @@
         <v>0</v>
       </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr"/>
+      <c r="K837" t="n">
+        <v>398</v>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -32427,8 +32457,14 @@
         <v>0</v>
       </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
+      <c r="K838" t="n">
+        <v>398</v>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -32462,8 +32498,14 @@
         <v>0</v>
       </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr"/>
+      <c r="K839" t="n">
+        <v>398</v>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -32497,8 +32539,14 @@
         <v>0</v>
       </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
+      <c r="K840" t="n">
+        <v>398</v>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -32532,8 +32580,14 @@
         <v>0</v>
       </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr"/>
+      <c r="K841" t="n">
+        <v>398</v>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -32567,8 +32621,14 @@
         <v>0</v>
       </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr"/>
+      <c r="K842" t="n">
+        <v>398</v>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -32602,8 +32662,14 @@
         <v>0</v>
       </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr"/>
+      <c r="K843" t="n">
+        <v>398</v>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -32637,8 +32703,14 @@
         <v>0</v>
       </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr"/>
+      <c r="K844" t="n">
+        <v>398</v>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -32672,8 +32744,14 @@
         <v>0</v>
       </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
+      <c r="K845" t="n">
+        <v>398</v>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -32707,8 +32785,14 @@
         <v>0</v>
       </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr"/>
+      <c r="K846" t="n">
+        <v>398</v>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -32742,8 +32826,14 @@
         <v>0</v>
       </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
+      <c r="K847" t="n">
+        <v>398</v>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -32777,8 +32867,14 @@
         <v>0</v>
       </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr"/>
+      <c r="K848" t="n">
+        <v>398</v>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -32812,8 +32908,14 @@
         <v>0</v>
       </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr"/>
+      <c r="K849" t="n">
+        <v>398</v>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -32847,8 +32949,14 @@
         <v>0</v>
       </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr"/>
+      <c r="K850" t="n">
+        <v>398</v>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -32882,8 +32990,14 @@
         <v>0</v>
       </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
+      <c r="K851" t="n">
+        <v>398</v>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -32917,8 +33031,14 @@
         <v>0</v>
       </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
+      <c r="K852" t="n">
+        <v>398</v>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -32952,8 +33072,14 @@
         <v>0</v>
       </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
+      <c r="K853" t="n">
+        <v>398</v>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -32987,8 +33113,14 @@
         <v>0</v>
       </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
+      <c r="K854" t="n">
+        <v>398</v>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -33022,8 +33154,14 @@
         <v>0</v>
       </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
+      <c r="K855" t="n">
+        <v>398</v>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -33057,8 +33195,14 @@
         <v>0</v>
       </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr"/>
+      <c r="K856" t="n">
+        <v>398</v>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -33092,8 +33236,14 @@
         <v>0</v>
       </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr"/>
+      <c r="K857" t="n">
+        <v>398</v>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -33127,8 +33277,14 @@
         <v>0</v>
       </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr"/>
+      <c r="K858" t="n">
+        <v>398</v>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -33162,8 +33318,14 @@
         <v>0</v>
       </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr"/>
+      <c r="K859" t="n">
+        <v>398</v>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M859" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest MTL.xlsx
+++ b/BackTest/2019-10-29 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>431479.42868074</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>184789.07060813</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>193860.63519602</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>204044.40599602</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>171948.33249602</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>174776.7085466401</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>196027.5725623</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>158883.4061623001</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>128781.8258623001</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>64192.64711017011</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>64192.64711017011</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>64181.48681017011</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>66209.25661017011</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>73155.9314101701</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>73069.5984101701</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>88064.74845957011</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>88011.23125957011</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>97212.36430851011</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>104920.6008085101</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>104920.6008085101</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>105423.4510085101</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>119050.1189085101</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>123891.6785085101</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>137594.8144085101</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>155758.7581085101</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>150558.7732085101</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>142080.7769085101</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>132494.3054085101</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>120908.9687085101</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>134376.6420085101</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>128167.4003085101</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>118188.2708085101</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>118288.2708085101</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>118040.0063085101</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>122588.5793085101</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>114872.7797085101</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>116150.9370085101</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>112413.3655085101</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>131968.3570085101</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>135847.0683505601</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>133263.1491505601</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>130633.8115505601</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>130697.4940331401</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>127227.4026331401</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>127227.4026331401</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>135523.6912331401</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>118657.2265331401</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>119577.4681331401</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>122597.8636331401</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>120207.2892331401</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>118181.3371331401</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>120239.9176331401</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>118658.7654331401</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>116987.7654331401</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>118014.3037331401</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>118014.3037331401</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>109798.1345083801</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>96073.34460838007</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>96073.34460838007</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>97069.88890838006</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>98281.40203081006</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>98280.40203081006</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>104377.9480106601</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>100017.0403106601</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>100017.0403106601</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>99460.79721066005</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>101444.6476163401</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>115026.9069163401</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>115025.9069163401</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>110970.8485163401</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>124387.0851163401</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>124387.0851163401</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>124387.0851163401</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>145904.7633425801</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>145904.7633425801</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>145904.7633425801</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>144145.5068425801</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>136934.0317425801</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>136684.1796425801</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>136855.4557425801</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -15697,11 +15697,17 @@
         <v>-166526.97894579</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>391</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15736,17 @@
         <v>-179601.48614579</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>389</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +15779,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15812,17 @@
         <v>-171580.34344579</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>391</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +15855,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +15892,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +15929,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +15966,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16003,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16040,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16077,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16110,17 @@
         <v>-207151.26424171</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>392</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16149,17 @@
         <v>-220053.04844171</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>391</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16188,17 @@
         <v>-220053.04844171</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>390</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16227,17 @@
         <v>-218491.02294171</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>390</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16266,17 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>391</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16305,17 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>394</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16344,17 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>394</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16387,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16420,17 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>394</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16459,17 @@
         <v>-176318.59954171</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>394</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16502,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16539,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16576,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16613,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16650,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16687,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16724,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +16761,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +16798,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +16835,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +16872,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +16909,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +16946,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +16983,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17020,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17057,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17094,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17131,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17168,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17205,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17242,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17279,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17316,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17353,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17390,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +17427,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +17464,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +17501,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17534,17 @@
         <v>-224517.04404171</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>391</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17573,17 @@
         <v>-221589.52104171</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>391</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17612,17 @@
         <v>-221589.52104171</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>394</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17651,17 @@
         <v>-222989.16904171</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>394</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17690,17 @@
         <v>-218789.16904171</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>391</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17729,17 @@
         <v>-229577.89454171</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>393</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +17768,17 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>389</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17807,17 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>392</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17846,17 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>392</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17885,17 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>392</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +17924,17 @@
         <v>-227870.75494171</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>392</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +17963,17 @@
         <v>-227870.75494171</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>391</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +18002,17 @@
         <v>-227870.75494171</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>391</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +18041,17 @@
         <v>-241333.97644171</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>391</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +18080,17 @@
         <v>-241308.97644171</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>390</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +18119,17 @@
         <v>-241308.97644171</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>393</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18158,17 @@
         <v>-241308.97644171</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>393</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18197,17 @@
         <v>-226448.82824171</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>393</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18236,17 @@
         <v>-228119.70774171</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>394</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18275,17 @@
         <v>-222728.09404171</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>390</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18318,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18355,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18388,17 @@
         <v>-219967.60714171</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>392</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18431,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18464,17 @@
         <v>-222811.51474171</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>389</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18503,17 @@
         <v>-221376.10534171</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>390</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18542,17 @@
         <v>-212999.50404171</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>392</v>
+      </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18581,17 @@
         <v>-212999.50404171</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>393</v>
+      </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18620,17 @@
         <v>-215136.58244171</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>393</v>
+      </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18659,17 @@
         <v>-205317.42304171</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>390</v>
+      </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18698,17 @@
         <v>-208209.86794171</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>393</v>
+      </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +18737,17 @@
         <v>-210823.47074171</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>389</v>
+      </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +18776,17 @@
         <v>-209643.47074171</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>388</v>
+      </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18815,17 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>392</v>
+      </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +18854,17 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>388</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,15 +18893,17 @@
         <v>-213663.54643177</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>388</v>
       </c>
-      <c r="J548" t="n">
-        <v>388</v>
-      </c>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,17 +18932,15 @@
         <v>-225497.50443177</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>392</v>
       </c>
-      <c r="J549" t="n">
-        <v>388</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L549" t="n">
@@ -18547,14 +18971,12 @@
         <v>-224736.57093177</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>387</v>
       </c>
-      <c r="J550" t="n">
-        <v>388</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18588,12 +19010,12 @@
         <v>-222016.57093177</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>392</v>
+      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18627,14 +19049,12 @@
         <v>-229623.77673177</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>393</v>
       </c>
-      <c r="J552" t="n">
-        <v>388</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18668,12 +19088,12 @@
         <v>-229123.77673177</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
         <v>388</v>
       </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18707,14 +19127,12 @@
         <v>-232791.40283177</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>389</v>
       </c>
-      <c r="J554" t="n">
-        <v>388</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18748,14 +19166,12 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>388</v>
       </c>
-      <c r="J555" t="n">
-        <v>388</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18789,14 +19205,12 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>389</v>
       </c>
-      <c r="J556" t="n">
-        <v>388</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18830,14 +19244,12 @@
         <v>-218149.01053177</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>389</v>
       </c>
-      <c r="J557" t="n">
-        <v>388</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18871,14 +19283,12 @@
         <v>-212237.01053177</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>392</v>
       </c>
-      <c r="J558" t="n">
-        <v>388</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18912,14 +19322,12 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>393</v>
       </c>
-      <c r="J559" t="n">
-        <v>388</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18953,14 +19361,12 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>392</v>
       </c>
-      <c r="J560" t="n">
-        <v>388</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18994,14 +19400,12 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>392</v>
       </c>
-      <c r="J561" t="n">
-        <v>388</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19035,14 +19439,12 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>392</v>
       </c>
-      <c r="J562" t="n">
-        <v>388</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19076,14 +19478,12 @@
         <v>-214843.5588134</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>392</v>
       </c>
-      <c r="J563" t="n">
-        <v>388</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,14 +19517,12 @@
         <v>-219999.3450134</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>389</v>
       </c>
-      <c r="J564" t="n">
-        <v>388</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19158,14 +19556,12 @@
         <v>-218736.8054134</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>387</v>
       </c>
-      <c r="J565" t="n">
-        <v>388</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19199,14 +19595,12 @@
         <v>-216731.81347365</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>391</v>
       </c>
-      <c r="J566" t="n">
-        <v>388</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19240,14 +19634,12 @@
         <v>-218077.20028024</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>395</v>
       </c>
-      <c r="J567" t="n">
-        <v>388</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19281,14 +19673,12 @@
         <v>-218160.16638024</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>394</v>
       </c>
-      <c r="J568" t="n">
-        <v>388</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19322,14 +19712,12 @@
         <v>-217031.13878024</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>392</v>
       </c>
-      <c r="J569" t="n">
-        <v>388</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19363,14 +19751,12 @@
         <v>-217031.13878024</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>395</v>
       </c>
-      <c r="J570" t="n">
-        <v>388</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19404,14 +19790,12 @@
         <v>-231641.37348024</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>395</v>
       </c>
-      <c r="J571" t="n">
-        <v>388</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19445,12 +19829,12 @@
         <v>-230143.58098024</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>387</v>
+      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19484,14 +19868,12 @@
         <v>-228898.96079994</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>395</v>
       </c>
-      <c r="J573" t="n">
-        <v>388</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19525,12 +19907,12 @@
         <v>-228898.96079994</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>396</v>
+      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19564,12 +19946,12 @@
         <v>-229004.35959994</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>396</v>
+      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19603,12 +19985,12 @@
         <v>-228127.8188999399</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>391</v>
+      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19642,12 +20024,12 @@
         <v>-237347.82769994</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>395</v>
+      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19681,12 +20063,12 @@
         <v>-237347.82769994</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>394</v>
+      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19720,12 +20102,12 @@
         <v>-237347.82769994</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>394</v>
+      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19759,12 +20141,12 @@
         <v>-242670.8421999399</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>394</v>
+      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19798,12 +20180,12 @@
         <v>-253095.06979994</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>392</v>
+      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19837,14 +20219,12 @@
         <v>-225413.1933999399</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>390</v>
       </c>
-      <c r="J582" t="n">
-        <v>388</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19878,12 +20258,12 @@
         <v>-226730.8586999399</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>394</v>
+      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19917,12 +20297,12 @@
         <v>-226740.83559994</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>393</v>
+      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19959,9 +20339,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>388</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19995,12 +20373,12 @@
         <v>-228791.89709994</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>394</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20034,12 +20412,12 @@
         <v>-228790.89709994</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>393</v>
+      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20073,12 +20451,12 @@
         <v>-228790.89709994</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>394</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20112,12 +20490,12 @@
         <v>-228790.89709994</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>394</v>
+      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20151,12 +20529,12 @@
         <v>-229188.26469994</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>394</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20190,12 +20568,12 @@
         <v>-229187.26469994</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>392</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20229,12 +20607,12 @@
         <v>-230902.76459994</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>394</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20268,12 +20646,12 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>392</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20307,12 +20685,12 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>393</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20346,12 +20724,12 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>393</v>
+      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20385,12 +20763,12 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>393</v>
+      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20424,12 +20802,12 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>393</v>
+      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20463,12 +20841,12 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>393</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20502,12 +20880,12 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>393</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20541,12 +20919,12 @@
         <v>-230882.22779994</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>393</v>
+      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20580,12 +20958,12 @@
         <v>-230882.22779994</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>394</v>
+      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20619,12 +20997,12 @@
         <v>-231397.5242999399</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>394</v>
+      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20658,12 +21036,12 @@
         <v>-238640.6994999399</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>391</v>
+      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20697,12 +21075,12 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>390</v>
+      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20736,12 +21114,12 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>391</v>
+      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20775,12 +21153,12 @@
         <v>-248699.16349994</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>391</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20814,12 +21192,12 @@
         <v>-247770.56019994</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
         <v>388</v>
       </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20853,12 +21231,12 @@
         <v>-251498.46309994</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>391</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20892,14 +21270,12 @@
         <v>-251498.46309994</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>388</v>
       </c>
-      <c r="J609" t="n">
-        <v>388</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20933,14 +21309,12 @@
         <v>-251404.31479994</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I610" t="n">
         <v>388</v>
       </c>
-      <c r="J610" t="n">
-        <v>388</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20974,14 +21348,12 @@
         <v>-251401.31479994</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I611" t="n">
         <v>392</v>
       </c>
-      <c r="J611" t="n">
-        <v>388</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21015,12 +21387,12 @@
         <v>-252039.06989994</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>394</v>
+      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21054,14 +21426,12 @@
         <v>-252286.80229994</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="n">
         <v>392</v>
       </c>
-      <c r="J613" t="n">
-        <v>388</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21095,14 +21465,12 @@
         <v>-253354.84989994</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>391</v>
       </c>
-      <c r="J614" t="n">
-        <v>388</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21136,14 +21504,12 @@
         <v>-256190.17919994</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" t="n">
         <v>390</v>
       </c>
-      <c r="J615" t="n">
-        <v>388</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21177,14 +21543,12 @@
         <v>-255968.17919994</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>388</v>
       </c>
-      <c r="J616" t="n">
-        <v>388</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21218,14 +21582,12 @@
         <v>-255968.17919994</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>390</v>
       </c>
-      <c r="J617" t="n">
-        <v>388</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21259,14 +21621,12 @@
         <v>-255967.17919994</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>390</v>
       </c>
-      <c r="J618" t="n">
-        <v>388</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21300,14 +21660,12 @@
         <v>-261493.75689994</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>392</v>
       </c>
-      <c r="J619" t="n">
-        <v>388</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21341,14 +21699,12 @@
         <v>-261493.75689994</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>390</v>
       </c>
-      <c r="J620" t="n">
-        <v>388</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21382,14 +21738,12 @@
         <v>-261463.75689994</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>390</v>
       </c>
-      <c r="J621" t="n">
-        <v>388</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21423,14 +21777,12 @@
         <v>-261463.75689994</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>392</v>
       </c>
-      <c r="J622" t="n">
-        <v>388</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21464,14 +21816,12 @@
         <v>-261463.75689994</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>392</v>
       </c>
-      <c r="J623" t="n">
-        <v>388</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21505,14 +21855,12 @@
         <v>-254619.37079994</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>392</v>
       </c>
-      <c r="J624" t="n">
-        <v>388</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21546,14 +21894,12 @@
         <v>-254619.37079994</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>393</v>
       </c>
-      <c r="J625" t="n">
-        <v>388</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21587,14 +21933,12 @@
         <v>-258681.91639994</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>393</v>
       </c>
-      <c r="J626" t="n">
-        <v>388</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21628,14 +21972,12 @@
         <v>-264652.42689994</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>392</v>
       </c>
-      <c r="J627" t="n">
-        <v>388</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21669,14 +22011,12 @@
         <v>-258098.83069994</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>391</v>
       </c>
-      <c r="J628" t="n">
-        <v>388</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21710,14 +22050,12 @@
         <v>-258098.83069994</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>392</v>
       </c>
-      <c r="J629" t="n">
-        <v>388</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21751,14 +22089,12 @@
         <v>-263173.05359994</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>392</v>
       </c>
-      <c r="J630" t="n">
-        <v>388</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21792,14 +22128,12 @@
         <v>-257290.99719994</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>389</v>
       </c>
-      <c r="J631" t="n">
-        <v>388</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21833,14 +22167,12 @@
         <v>-259757.21589994</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>391</v>
       </c>
-      <c r="J632" t="n">
-        <v>388</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21874,14 +22206,12 @@
         <v>-259701.49829994</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>389</v>
       </c>
-      <c r="J633" t="n">
-        <v>388</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21915,14 +22245,12 @@
         <v>-255717.20159994</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>391</v>
       </c>
-      <c r="J634" t="n">
-        <v>388</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21956,14 +22284,12 @@
         <v>-245776.2356999399</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>392</v>
       </c>
-      <c r="J635" t="n">
-        <v>388</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21997,14 +22323,12 @@
         <v>-249018.58929994</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>395</v>
       </c>
-      <c r="J636" t="n">
-        <v>388</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22038,14 +22362,12 @@
         <v>-249018.58929994</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>393</v>
       </c>
-      <c r="J637" t="n">
-        <v>388</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,14 +22401,12 @@
         <v>-249266.1234999399</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>393</v>
       </c>
-      <c r="J638" t="n">
-        <v>388</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,14 +22440,12 @@
         <v>-249365.53789994</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>392</v>
       </c>
-      <c r="J639" t="n">
-        <v>388</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22161,14 +22479,12 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>391</v>
       </c>
-      <c r="J640" t="n">
-        <v>388</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22202,14 +22518,12 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>394</v>
       </c>
-      <c r="J641" t="n">
-        <v>388</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22243,14 +22557,12 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>394</v>
       </c>
-      <c r="J642" t="n">
-        <v>388</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22284,14 +22596,12 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>394</v>
       </c>
-      <c r="J643" t="n">
-        <v>388</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22325,14 +22635,12 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>394</v>
       </c>
-      <c r="J644" t="n">
-        <v>388</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22366,14 +22674,12 @@
         <v>-248351.00159081</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>394</v>
       </c>
-      <c r="J645" t="n">
-        <v>388</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22407,14 +22713,12 @@
         <v>-248410.55729081</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>395</v>
       </c>
-      <c r="J646" t="n">
-        <v>388</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22448,14 +22752,12 @@
         <v>-248409.55729081</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>392</v>
       </c>
-      <c r="J647" t="n">
-        <v>388</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22489,12 +22791,12 @@
         <v>-253477.2280908099</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>394</v>
+      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22528,12 +22830,12 @@
         <v>-251465.3548908099</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>391</v>
+      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22567,14 +22869,12 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>392</v>
       </c>
-      <c r="J650" t="n">
-        <v>388</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22608,14 +22908,12 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>393</v>
       </c>
-      <c r="J651" t="n">
-        <v>388</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22649,14 +22947,12 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I652" t="n">
         <v>393</v>
       </c>
-      <c r="J652" t="n">
-        <v>388</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22690,14 +22986,12 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>393</v>
       </c>
-      <c r="J653" t="n">
-        <v>388</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22731,14 +23025,12 @@
         <v>-259184.2541908099</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>393</v>
       </c>
-      <c r="J654" t="n">
-        <v>388</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22772,14 +23064,12 @@
         <v>-259124.2726908099</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>389</v>
       </c>
-      <c r="J655" t="n">
-        <v>388</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22813,12 +23103,12 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>391</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22852,14 +23142,12 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657" t="n">
         <v>392</v>
       </c>
-      <c r="J657" t="n">
-        <v>388</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22893,12 +23181,12 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>392</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22932,14 +23220,12 @@
         <v>-258527.8100908099</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>392</v>
       </c>
-      <c r="J659" t="n">
-        <v>388</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22973,14 +23259,12 @@
         <v>-258526.8100908099</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>391</v>
       </c>
-      <c r="J660" t="n">
-        <v>388</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23014,14 +23298,12 @@
         <v>-258726.8099908099</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>393</v>
       </c>
-      <c r="J661" t="n">
-        <v>388</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23055,14 +23337,12 @@
         <v>-258726.8099908099</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>392</v>
       </c>
-      <c r="J662" t="n">
-        <v>388</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23096,14 +23376,12 @@
         <v>-258726.8099908099</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>392</v>
       </c>
-      <c r="J663" t="n">
-        <v>388</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23137,14 +23415,12 @@
         <v>-258705.8099908099</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>392</v>
       </c>
-      <c r="J664" t="n">
-        <v>388</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23178,14 +23454,12 @@
         <v>-259528.9558908099</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>393</v>
       </c>
-      <c r="J665" t="n">
-        <v>388</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23219,14 +23493,12 @@
         <v>-267849.8841908099</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>392</v>
       </c>
-      <c r="J666" t="n">
-        <v>388</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23260,14 +23532,12 @@
         <v>-266841.2767908099</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>391</v>
       </c>
-      <c r="J667" t="n">
-        <v>388</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23301,14 +23571,12 @@
         <v>-266841.2767908099</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>392</v>
       </c>
-      <c r="J668" t="n">
-        <v>388</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23342,14 +23610,12 @@
         <v>-266841.2767908099</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>392</v>
       </c>
-      <c r="J669" t="n">
-        <v>388</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23383,14 +23649,12 @@
         <v>-266841.2767908099</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>392</v>
       </c>
-      <c r="J670" t="n">
-        <v>388</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23424,14 +23688,12 @@
         <v>-266911.50029081</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>392</v>
       </c>
-      <c r="J671" t="n">
-        <v>388</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23465,14 +23727,12 @@
         <v>-264097.1224908099</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>390</v>
       </c>
-      <c r="J672" t="n">
-        <v>388</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23506,14 +23766,12 @@
         <v>-264097.1224908099</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>392</v>
       </c>
-      <c r="J673" t="n">
-        <v>388</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23547,12 +23805,12 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>392</v>
+      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23586,14 +23844,12 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>393</v>
       </c>
-      <c r="J675" t="n">
-        <v>388</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23627,14 +23883,12 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>393</v>
       </c>
-      <c r="J676" t="n">
-        <v>388</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23668,14 +23922,12 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>393</v>
       </c>
-      <c r="J677" t="n">
-        <v>388</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23709,14 +23961,12 @@
         <v>-270095.5917908099</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>393</v>
       </c>
-      <c r="J678" t="n">
-        <v>388</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23750,14 +24000,12 @@
         <v>-254160.6098908099</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>392</v>
       </c>
-      <c r="J679" t="n">
-        <v>388</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23791,14 +24039,12 @@
         <v>-255160.6098908099</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>394</v>
       </c>
-      <c r="J680" t="n">
-        <v>388</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23832,14 +24078,12 @@
         <v>-285857.9496908099</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>393</v>
       </c>
-      <c r="J681" t="n">
-        <v>388</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23873,12 +24117,12 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>390</v>
+      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23912,12 +24156,12 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>391</v>
+      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23951,14 +24195,12 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684" t="n">
         <v>391</v>
       </c>
-      <c r="J684" t="n">
-        <v>388</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23992,14 +24234,12 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>391</v>
       </c>
-      <c r="J685" t="n">
-        <v>388</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24033,14 +24273,12 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I686" t="n">
         <v>391</v>
       </c>
-      <c r="J686" t="n">
-        <v>388</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24074,14 +24312,12 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I687" t="n">
         <v>391</v>
       </c>
-      <c r="J687" t="n">
-        <v>388</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24115,14 +24351,12 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>392</v>
       </c>
-      <c r="J688" t="n">
-        <v>388</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24156,14 +24390,12 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>392</v>
       </c>
-      <c r="J689" t="n">
-        <v>388</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24197,14 +24429,12 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>392</v>
       </c>
-      <c r="J690" t="n">
-        <v>388</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24238,14 +24468,12 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>392</v>
       </c>
-      <c r="J691" t="n">
-        <v>388</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24279,14 +24507,12 @@
         <v>-274461.2609867299</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>392</v>
       </c>
-      <c r="J692" t="n">
-        <v>388</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24320,14 +24546,12 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>394</v>
       </c>
-      <c r="J693" t="n">
-        <v>388</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24361,12 +24585,12 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>395</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24400,12 +24624,12 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>395</v>
+      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24439,12 +24663,12 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>395</v>
+      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24478,12 +24702,12 @@
         <v>-272042.5907867299</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>395</v>
+      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24517,12 +24741,12 @@
         <v>-272042.5907867299</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>393</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24556,12 +24780,12 @@
         <v>-272037.5907867299</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>393</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24595,12 +24819,12 @@
         <v>-272037.5907867299</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>395</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24634,12 +24858,12 @@
         <v>-267355.7044867299</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>395</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24673,12 +24897,12 @@
         <v>-267354.7044867299</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>396</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24712,12 +24936,12 @@
         <v>-270965.5739867299</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>399</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24754,9 +24978,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>388</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24790,12 +25012,12 @@
         <v>-270965.5739867299</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>397</v>
+      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24832,9 +25054,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>388</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24871,9 +25091,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>388</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24907,12 +25125,12 @@
         <v>-273393.4348867299</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>395</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24946,12 +25164,12 @@
         <v>-272233.9092867299</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>396</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24985,12 +25203,12 @@
         <v>-272422.9092867299</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>398</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25024,12 +25242,12 @@
         <v>-272422.9092867299</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>397</v>
+      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25063,12 +25281,12 @@
         <v>-272103.5097867299</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>397</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25102,12 +25320,12 @@
         <v>-234768.1482867299</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>398</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25144,9 +25362,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>388</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25183,9 +25399,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>388</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25222,9 +25436,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>388</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25261,9 +25473,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>388</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25300,9 +25510,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>388</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25339,9 +25547,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>388</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25378,9 +25584,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>388</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25417,9 +25621,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>388</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25456,9 +25658,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>388</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25495,9 +25695,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>388</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25534,9 +25732,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>388</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25570,12 +25766,12 @@
         <v>-202876.3836578099</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>400</v>
+      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25612,9 +25808,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>388</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25651,9 +25845,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>388</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25690,9 +25882,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>388</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25729,9 +25919,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>388</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25768,9 +25956,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>388</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25807,9 +25993,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>388</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25846,9 +26030,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>388</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25885,9 +26067,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>388</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25924,9 +26104,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>388</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25963,9 +26141,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>388</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25999,12 +26175,12 @@
         <v>-212506.1011578099</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>400</v>
+      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26038,12 +26214,12 @@
         <v>-212506.1011578099</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>400</v>
+      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26077,12 +26253,12 @@
         <v>-218654.3497578099</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>400</v>
+      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26119,9 +26295,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>388</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26158,9 +26332,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>388</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26197,9 +26369,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>388</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26236,9 +26406,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>388</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26275,9 +26443,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>388</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26314,9 +26480,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>388</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26353,9 +26517,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>388</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26392,9 +26554,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>388</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26431,9 +26591,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>388</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26470,9 +26628,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>388</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26509,9 +26665,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>388</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26548,9 +26702,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>388</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26587,9 +26739,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>388</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26626,9 +26776,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>388</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26665,9 +26813,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>388</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26704,9 +26850,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>388</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26743,9 +26887,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>388</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26782,9 +26924,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>388</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26821,9 +26961,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>388</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26860,9 +26998,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>388</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26899,9 +27035,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>388</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26938,9 +27072,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>388</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26977,9 +27109,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>388</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27016,9 +27146,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>388</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27055,9 +27183,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>388</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27094,9 +27220,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>388</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27133,9 +27257,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>388</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27172,9 +27294,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>388</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27211,9 +27331,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>388</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27250,9 +27368,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>388</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27289,9 +27405,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>388</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27328,9 +27442,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>388</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27367,9 +27479,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>388</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27403,12 +27513,12 @@
         <v>-262154.4339685598</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>397</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27445,9 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>388</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27484,9 +27592,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>388</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27523,9 +27629,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>388</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27562,9 +27666,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>388</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27601,9 +27703,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>388</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27640,9 +27740,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>388</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27679,9 +27777,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>388</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27718,9 +27814,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>388</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27757,9 +27851,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>388</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27796,9 +27888,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>388</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27835,9 +27925,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>388</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27874,9 +27962,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>388</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27913,9 +27999,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>388</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27952,9 +28036,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>388</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27991,9 +28073,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>388</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28030,9 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>388</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28066,12 +28144,12 @@
         <v>-279349.0360685597</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>394</v>
+      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28108,9 +28186,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>388</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28147,9 +28223,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>388</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28186,9 +28260,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>388</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28225,9 +28297,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>388</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28264,9 +28334,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>388</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28303,9 +28371,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>388</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28342,9 +28408,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>388</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28378,12 +28442,12 @@
         <v>-306691.3454685597</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>395</v>
+      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28417,12 +28481,12 @@
         <v>-306690.2254685597</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>394</v>
+      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28459,9 +28523,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>388</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28495,12 +28557,12 @@
         <v>-305317.4327501797</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>397</v>
+      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28534,12 +28596,12 @@
         <v>-305317.4327501797</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>396</v>
+      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28573,12 +28635,12 @@
         <v>-309400.7302501797</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>396</v>
+      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28612,12 +28674,12 @@
         <v>-309371.5302501797</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>394</v>
+      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28651,12 +28713,12 @@
         <v>-309371.5302501797</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>395</v>
+      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28690,12 +28752,12 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>395</v>
+      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28729,12 +28791,12 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>394</v>
+      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28768,12 +28830,12 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>394</v>
+      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28807,12 +28869,12 @@
         <v>-310965.5993501797</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>394</v>
+      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28846,12 +28908,12 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>395</v>
+      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28885,12 +28947,12 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>394</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28924,12 +28986,12 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>394</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28963,12 +29025,12 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>394</v>
+      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29002,12 +29064,12 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>393</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29041,12 +29103,12 @@
         <v>-326725.8850501797</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>393</v>
+      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29080,12 +29142,12 @@
         <v>-316659.1089501797</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>392</v>
+      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29119,12 +29181,12 @@
         <v>-316659.1089501797</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>394</v>
+      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29158,12 +29220,12 @@
         <v>-317348.8453501797</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>394</v>
+      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29197,12 +29259,12 @@
         <v>-317101.4015501797</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>392</v>
+      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29236,12 +29298,12 @@
         <v>-316502.4015501797</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>393</v>
+      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29275,12 +29337,12 @@
         <v>-316502.4015501797</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>396</v>
+      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29314,12 +29376,12 @@
         <v>-311283.8307501797</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>396</v>
+      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29353,12 +29415,12 @@
         <v>-297831.9591501797</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>397</v>
+      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29392,12 +29454,12 @@
         <v>-294450.9591501797</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>398</v>
+      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29434,9 +29496,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>388</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29473,9 +29533,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>388</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29512,9 +29570,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>388</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29551,9 +29607,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>388</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29590,9 +29644,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>388</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29629,9 +29681,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>388</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29668,9 +29718,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>388</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29707,9 +29755,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>388</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29746,9 +29792,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>388</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29785,9 +29829,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>388</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29824,9 +29866,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>388</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29863,9 +29903,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>388</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29902,9 +29940,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>388</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29941,9 +29977,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>388</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29980,9 +30014,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>388</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30019,9 +30051,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>388</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30058,9 +30088,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>388</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30097,9 +30125,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>388</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30136,9 +30162,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>388</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30175,9 +30199,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>388</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30214,9 +30236,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>388</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30253,9 +30273,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>388</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30292,9 +30310,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>388</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30331,9 +30347,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>388</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30370,9 +30384,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>388</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30409,9 +30421,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>388</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30448,9 +30458,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>388</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30487,9 +30495,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>388</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30526,9 +30532,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>388</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30565,9 +30569,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>388</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30604,9 +30606,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>388</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30643,9 +30643,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>388</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30682,9 +30680,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>388</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30721,9 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>388</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30760,9 +30754,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>388</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30799,9 +30791,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>388</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30838,9 +30828,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>388</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30877,9 +30865,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>388</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30916,9 +30902,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>388</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30955,9 +30939,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>388</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30994,9 +30976,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>388</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31033,9 +31013,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>388</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31072,9 +31050,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>388</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31111,9 +31087,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>388</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31147,12 +31121,12 @@
         <v>-295031.3981501796</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>407</v>
+      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31189,9 +31163,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>388</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31228,9 +31200,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>388</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31267,9 +31237,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>388</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31306,9 +31274,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>388</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31345,9 +31311,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>388</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31384,9 +31348,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>388</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31423,9 +31385,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>388</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31462,9 +31422,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>388</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31501,9 +31459,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>388</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31540,9 +31496,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>388</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31579,9 +31533,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>388</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31618,9 +31570,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>388</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31657,9 +31607,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>388</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31696,9 +31644,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>388</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31735,9 +31681,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>388</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31774,9 +31718,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>388</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31813,9 +31755,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>388</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31852,9 +31792,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>388</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31891,9 +31829,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>388</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31927,12 +31863,12 @@
         <v>-321351.9032501796</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>404</v>
+      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31969,9 +31905,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>388</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32008,9 +31942,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>388</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32047,9 +31979,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>388</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32086,9 +32016,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>388</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32125,9 +32053,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>388</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32164,9 +32090,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>388</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32203,9 +32127,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>388</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32242,9 +32164,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>388</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32281,9 +32201,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>388</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32320,9 +32238,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>388</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32359,9 +32275,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>388</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32398,9 +32312,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>388</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32437,9 +32349,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>388</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32476,9 +32386,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>388</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32515,9 +32423,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>388</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32554,9 +32460,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>388</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32593,9 +32497,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>388</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32632,9 +32534,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>388</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32671,9 +32571,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>388</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32710,9 +32608,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>388</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32749,9 +32645,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>388</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32788,9 +32682,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>388</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32827,9 +32719,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>388</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32866,9 +32756,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>388</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32905,9 +32793,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>388</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32944,9 +32830,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>388</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32983,9 +32867,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>388</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33022,9 +32904,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>388</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33061,9 +32941,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>388</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33100,9 +32978,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>388</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33139,9 +33015,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>388</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33175,12 +33049,12 @@
         <v>-282228.8861482196</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>388</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>395</v>
+      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33217,9 +33091,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>388</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33256,9 +33128,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>388</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33295,9 +33165,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>388</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33334,9 +33202,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>388</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33373,9 +33239,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>388</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33412,9 +33276,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>388</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33451,9 +33313,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>388</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33490,9 +33350,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>388</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33504,6 +33362,6 @@
       <c r="M928" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest MTL.xlsx
+++ b/BackTest/2019-10-29 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>507288.05048074</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>401632.3069993</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>373661.65626107</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>191156.05889602</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>204044.40599602</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>171948.33249602</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>193759.84662133</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>191482.70264664</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>186744.73204664</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>186971.46174664</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>132494.3054085101</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>134376.6420085101</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>128167.4003085101</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>118188.2708085101</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>118288.2708085101</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>118040.0063085101</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>122588.5793085101</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>114872.7797085101</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>116150.9370085101</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>112413.3655085101</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>131968.3570085101</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>135847.0683505601</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>133263.1491505601</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>130633.8115505601</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>130697.4940331401</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>127227.4026331401</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>127227.4026331401</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>135523.6912331401</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>118657.2265331401</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>119577.4681331401</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>122597.8636331401</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>120207.2892331401</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>118181.3371331401</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>120239.9176331401</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>118658.7654331401</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>116987.7654331401</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>118014.3037331401</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>118014.3037331401</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>109798.1345083801</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>96073.34460838007</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>96073.34460838007</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>97069.88890838006</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>98281.40203081006</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>98280.40203081006</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>104377.9480106601</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>100017.0403106601</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>100017.0403106601</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>99460.79721066005</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>101444.6476163401</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>115026.9069163401</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>115025.9069163401</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>110970.8485163401</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>124387.0851163401</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>124387.0851163401</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>124387.0851163401</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -15697,17 +15697,11 @@
         <v>-166526.97894579</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15736,17 +15730,11 @@
         <v>-179601.48614579</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15779,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15812,17 +15796,11 @@
         <v>-171580.34344579</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15855,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15892,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15929,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15966,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16003,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16040,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16077,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16110,17 +16060,11 @@
         <v>-207151.26424171</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16149,17 +16093,11 @@
         <v>-220053.04844171</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16188,17 +16126,11 @@
         <v>-220053.04844171</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16227,17 +16159,11 @@
         <v>-218491.02294171</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16266,17 +16192,11 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16305,17 +16225,11 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16344,17 +16258,11 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16387,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16420,17 +16324,11 @@
         <v>-218490.02294171</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16459,17 +16357,11 @@
         <v>-176318.59954171</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16502,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16539,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16576,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16613,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16650,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16724,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16761,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16798,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16835,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16872,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16909,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16946,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16983,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17020,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17057,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17094,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17131,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17168,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17205,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17242,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17279,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17316,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17353,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17390,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17427,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17464,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17501,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17534,17 +17314,11 @@
         <v>-224517.04404171</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17573,17 +17347,11 @@
         <v>-221589.52104171</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17612,17 +17380,11 @@
         <v>-221589.52104171</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17651,17 +17413,11 @@
         <v>-222989.16904171</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17690,17 +17446,11 @@
         <v>-218789.16904171</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17729,17 +17479,11 @@
         <v>-229577.89454171</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17768,17 +17512,11 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17807,17 +17545,11 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17846,17 +17578,11 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17885,17 +17611,11 @@
         <v>-226758.44144171</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17924,17 +17644,11 @@
         <v>-227870.75494171</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17963,17 +17677,11 @@
         <v>-227870.75494171</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18002,17 +17710,11 @@
         <v>-227870.75494171</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18041,17 +17743,11 @@
         <v>-241333.97644171</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18080,17 +17776,11 @@
         <v>-241308.97644171</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18119,17 +17809,11 @@
         <v>-241308.97644171</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18158,17 +17842,11 @@
         <v>-241308.97644171</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18197,17 +17875,11 @@
         <v>-226448.82824171</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18236,17 +17908,11 @@
         <v>-228119.70774171</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18275,17 +17941,11 @@
         <v>-222728.09404171</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18318,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18355,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18388,17 +18040,11 @@
         <v>-219967.60714171</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18431,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18464,17 +18106,11 @@
         <v>-222811.51474171</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18503,17 +18139,11 @@
         <v>-221376.10534171</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18542,17 +18172,11 @@
         <v>-212999.50404171</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18581,17 +18205,11 @@
         <v>-212999.50404171</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18620,17 +18238,11 @@
         <v>-215136.58244171</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18659,17 +18271,11 @@
         <v>-205317.42304171</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18698,17 +18304,11 @@
         <v>-208209.86794171</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18737,17 +18337,11 @@
         <v>-210823.47074171</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18776,17 +18370,11 @@
         <v>-209643.47074171</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18823,7 +18411,7 @@
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L546" t="n">
@@ -19049,11 +18637,9 @@
         <v>-229623.77673177</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19088,11 +18674,9 @@
         <v>-229123.77673177</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19322,11 +18906,9 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19400,11 +18982,9 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19439,11 +19019,9 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19478,11 +19056,9 @@
         <v>-214843.5588134</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19517,11 +19093,9 @@
         <v>-219999.3450134</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19595,11 +19169,9 @@
         <v>-216731.81347365</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19634,11 +19206,9 @@
         <v>-218077.20028024</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19673,11 +19243,9 @@
         <v>-218160.16638024</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19712,11 +19280,9 @@
         <v>-217031.13878024</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19751,11 +19317,9 @@
         <v>-217031.13878024</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19790,11 +19354,9 @@
         <v>-231641.37348024</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19829,11 +19391,9 @@
         <v>-230143.58098024</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19868,11 +19428,9 @@
         <v>-228898.96079994</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -19907,11 +19465,9 @@
         <v>-228898.96079994</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -19946,11 +19502,9 @@
         <v>-229004.35959994</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -19985,11 +19539,9 @@
         <v>-228127.8188999399</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20024,11 +19576,9 @@
         <v>-237347.82769994</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20063,11 +19613,9 @@
         <v>-237347.82769994</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20102,11 +19650,9 @@
         <v>-237347.82769994</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20141,11 +19687,9 @@
         <v>-242670.8421999399</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20180,11 +19724,9 @@
         <v>-253095.06979994</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20219,11 +19761,9 @@
         <v>-225413.1933999399</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20258,11 +19798,9 @@
         <v>-226730.8586999399</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20297,11 +19835,9 @@
         <v>-226740.83559994</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
@@ -20373,11 +19909,9 @@
         <v>-228791.89709994</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
@@ -20412,11 +19946,9 @@
         <v>-228790.89709994</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20451,11 +19983,9 @@
         <v>-228790.89709994</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20490,11 +20020,9 @@
         <v>-228790.89709994</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20529,11 +20057,9 @@
         <v>-229188.26469994</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20568,11 +20094,9 @@
         <v>-229187.26469994</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20607,11 +20131,9 @@
         <v>-230902.76459994</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20646,11 +20168,9 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20685,11 +20205,9 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20724,11 +20242,9 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20763,11 +20279,9 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20802,11 +20316,9 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20841,11 +20353,9 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20880,11 +20390,9 @@
         <v>-230884.22779994</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20919,11 +20427,9 @@
         <v>-230882.22779994</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20958,11 +20464,9 @@
         <v>-230882.22779994</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20997,11 +20501,9 @@
         <v>-231397.5242999399</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21036,11 +20538,9 @@
         <v>-238640.6994999399</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21075,11 +20575,9 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21114,11 +20612,9 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21153,11 +20649,9 @@
         <v>-248699.16349994</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21387,11 +20881,9 @@
         <v>-252039.06989994</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21426,11 +20918,9 @@
         <v>-252286.80229994</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21465,11 +20955,9 @@
         <v>-253354.84989994</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21504,11 +20992,9 @@
         <v>-256190.17919994</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21543,11 +21029,9 @@
         <v>-255968.17919994</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -22635,11 +22119,9 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22674,11 +22156,9 @@
         <v>-248351.00159081</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22713,11 +22193,9 @@
         <v>-248410.55729081</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22752,11 +22230,9 @@
         <v>-248409.55729081</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22791,11 +22267,9 @@
         <v>-253477.2280908099</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22830,11 +22304,9 @@
         <v>-251465.3548908099</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22947,11 +22419,9 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -23142,11 +22612,9 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -24039,11 +23507,9 @@
         <v>-255160.6098908099</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -24585,11 +24051,9 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24663,11 +24127,9 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -24702,11 +24164,9 @@
         <v>-272042.5907867299</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -24741,11 +24201,9 @@
         <v>-272042.5907867299</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -24819,11 +24277,9 @@
         <v>-272037.5907867299</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -24858,11 +24314,9 @@
         <v>-267355.7044867299</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -24897,11 +24351,9 @@
         <v>-267354.7044867299</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -24936,11 +24388,9 @@
         <v>-270965.5739867299</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -25012,11 +24462,9 @@
         <v>-270965.5739867299</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
@@ -25125,11 +24573,9 @@
         <v>-273393.4348867299</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -25164,11 +24610,9 @@
         <v>-272233.9092867299</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -25203,11 +24647,9 @@
         <v>-272422.9092867299</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -25242,11 +24684,9 @@
         <v>-272422.9092867299</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -25281,11 +24721,9 @@
         <v>-272103.5097867299</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -25320,11 +24758,9 @@
         <v>-234768.1482867299</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -25766,11 +25202,9 @@
         <v>-202876.3836578099</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -26175,11 +25609,9 @@
         <v>-212506.1011578099</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -26214,11 +25646,9 @@
         <v>-212506.1011578099</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -26253,11 +25683,9 @@
         <v>-218654.3497578099</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -27513,11 +26941,9 @@
         <v>-262154.4339685598</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -28144,11 +27570,9 @@
         <v>-279349.0360685597</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -28294,9 +27718,11 @@
         <v>-299524.4704685597</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>396</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -28481,11 +27907,9 @@
         <v>-306690.2254685597</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -28557,11 +27981,9 @@
         <v>-305317.4327501797</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -28635,11 +28057,9 @@
         <v>-309400.7302501797</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -28674,11 +28094,9 @@
         <v>-309371.5302501797</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -28713,11 +28131,9 @@
         <v>-309371.5302501797</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -28752,11 +28168,9 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -28791,11 +28205,9 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -29454,11 +28866,9 @@
         <v>-294450.9591501797</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -31121,11 +30531,9 @@
         <v>-295031.3981501796</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -31863,11 +31271,9 @@
         <v>-321351.9032501796</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -32050,9 +31456,11 @@
         <v>-316985.5331482196</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>402</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -32087,9 +31495,11 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>402</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -32124,9 +31534,11 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>401</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -32161,9 +31573,11 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>401</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -32198,9 +31612,11 @@
         <v>-326085.6607482196</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>401</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -32235,9 +31651,11 @@
         <v>-333905.4730482196</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>403</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -32272,9 +31690,11 @@
         <v>-283560.3769482196</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>401</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -32309,9 +31729,11 @@
         <v>-283575.3769482196</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>406</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -32346,9 +31768,11 @@
         <v>-281718.9413482196</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>401</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -32383,9 +31807,11 @@
         <v>-281839.5551482196</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>403</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -32420,9 +31846,11 @@
         <v>-270735.5691482196</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>400</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -32457,9 +31885,11 @@
         <v>-270734.5691482196</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>403</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -32494,9 +31924,11 @@
         <v>-270808.5365482196</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>404</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -32531,9 +31963,11 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>401</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -32568,9 +32002,11 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>403</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -32642,9 +32078,11 @@
         <v>-275093.0194482196</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>400</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -32679,9 +32117,11 @@
         <v>-268798.4884482196</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>399</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -32901,9 +32341,11 @@
         <v>-282803.8130482197</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>399</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -32938,9 +32380,11 @@
         <v>-282804.8130482197</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>396</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -32975,9 +32419,11 @@
         <v>-282509.3382482196</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>395</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -33012,9 +32458,11 @@
         <v>-282510.3382482196</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>396</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -33088,9 +32536,11 @@
         <v>-282835.1867482197</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>397</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -33125,9 +32575,11 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>396</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -33162,9 +32614,11 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>397</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -33199,9 +32653,11 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>397</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -33236,9 +32692,11 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>397</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -33273,9 +32731,11 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>398</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -33310,9 +32770,11 @@
         <v>-269362.3393482196</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>398</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -33362,6 +32824,6 @@
       <c r="M928" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest MTL.xlsx
+++ b/BackTest/2019-10-29 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>507288.05048074</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>401632.3069993</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>373661.65626107</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>191156.05889602</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>204044.40599602</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>171948.33249602</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>193759.84662133</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>191482.70264664</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>186744.73204664</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>186971.46174664</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>155758.7581085101</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>150558.7732085101</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>142080.7769085101</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>132494.3054085101</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>120908.9687085101</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>134376.6420085101</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>128167.4003085101</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>118188.2708085101</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>118288.2708085101</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>118040.0063085101</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>122588.5793085101</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>114872.7797085101</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>116150.9370085101</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>112413.3655085101</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>131968.3570085101</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>135847.0683505601</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>133263.1491505601</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>130633.8115505601</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>130697.4940331401</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -18403,17 +18403,11 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18442,17 +18436,11 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18481,17 +18469,11 @@
         <v>-213663.54643177</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18520,17 +18502,11 @@
         <v>-225497.50443177</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18559,17 +18535,11 @@
         <v>-224736.57093177</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18598,17 +18568,11 @@
         <v>-222016.57093177</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18641,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18678,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18711,17 +18667,11 @@
         <v>-232791.40283177</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18750,17 +18700,11 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18789,17 +18733,11 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18828,17 +18766,11 @@
         <v>-218149.01053177</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18867,17 +18799,11 @@
         <v>-212237.01053177</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18910,11 +18836,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18943,17 +18865,11 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18986,11 +18902,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19023,11 +18935,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19060,11 +18968,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19093,13 +18997,15 @@
         <v>-219999.3450134</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>389</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L564" t="n">
@@ -19169,9 +19075,11 @@
         <v>-216731.81347365</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>391</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19206,9 +19114,11 @@
         <v>-218077.20028024</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>395</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -20538,9 +20448,11 @@
         <v>-238640.6994999399</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>391</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20575,9 +20487,11 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>390</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -20612,9 +20526,11 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>391</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -20649,9 +20565,11 @@
         <v>-248699.16349994</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>391</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -20881,9 +20799,11 @@
         <v>-252039.06989994</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>394</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -20918,9 +20838,11 @@
         <v>-252286.80229994</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>392</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -20955,9 +20877,11 @@
         <v>-253354.84989994</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>391</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -20992,9 +20916,11 @@
         <v>-256190.17919994</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>390</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21029,9 +20955,11 @@
         <v>-255968.17919994</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>388</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -22002,11 +21930,9 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -22041,11 +21967,9 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22080,11 +22004,9 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22341,11 +22263,9 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22380,11 +22300,9 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22456,11 +22374,9 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22495,11 +22411,9 @@
         <v>-259184.2541908099</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22534,11 +22448,9 @@
         <v>-259124.2726908099</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22612,9 +22524,11 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>392</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23507,9 +23421,11 @@
         <v>-255160.6098908099</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>394</v>
+      </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -23583,11 +23499,9 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -23622,11 +23536,9 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24051,9 +23963,11 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>395</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24088,11 +24002,9 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -27718,11 +27630,9 @@
         <v>-299524.4704685597</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
-      </c>
-      <c r="I793" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -27868,11 +27778,9 @@
         <v>-306691.3454685597</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -28018,11 +27926,9 @@
         <v>-305317.4327501797</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -28242,11 +28148,9 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -28281,11 +28185,9 @@
         <v>-310965.5993501797</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -28320,11 +28222,9 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -28359,11 +28259,9 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -28398,11 +28296,9 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -28437,11 +28333,9 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -28476,11 +28370,9 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -28515,11 +28407,9 @@
         <v>-326725.8850501797</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -28554,11 +28444,9 @@
         <v>-316659.1089501797</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28593,11 +28481,9 @@
         <v>-316659.1089501797</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -28632,11 +28518,9 @@
         <v>-317348.8453501797</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28671,11 +28555,9 @@
         <v>-317101.4015501797</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -28710,11 +28592,9 @@
         <v>-316502.4015501797</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -28749,11 +28629,9 @@
         <v>-316502.4015501797</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -28788,11 +28666,9 @@
         <v>-311283.8307501797</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28827,11 +28703,9 @@
         <v>-297831.9591501797</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -31456,11 +31330,9 @@
         <v>-316985.5331482196</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -31495,11 +31367,9 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -31534,11 +31404,9 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -31573,11 +31441,9 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -31612,11 +31478,9 @@
         <v>-326085.6607482196</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -31651,11 +31515,9 @@
         <v>-333905.4730482196</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -31690,11 +31552,9 @@
         <v>-283560.3769482196</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -31729,11 +31589,9 @@
         <v>-283575.3769482196</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -31768,11 +31626,9 @@
         <v>-281718.9413482196</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -31807,11 +31663,9 @@
         <v>-281839.5551482196</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31846,11 +31700,9 @@
         <v>-270735.5691482196</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -31885,11 +31737,9 @@
         <v>-270734.5691482196</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -31924,11 +31774,9 @@
         <v>-270808.5365482196</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31963,11 +31811,9 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -32002,11 +31848,9 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -32078,11 +31922,9 @@
         <v>-275093.0194482196</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -32117,11 +31959,9 @@
         <v>-268798.4884482196</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -32341,11 +32181,9 @@
         <v>-282803.8130482197</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -32380,11 +32218,9 @@
         <v>-282804.8130482197</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -32419,11 +32255,9 @@
         <v>-282509.3382482196</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -32458,11 +32292,9 @@
         <v>-282510.3382482196</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -32497,11 +32329,9 @@
         <v>-282228.8861482196</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -32536,11 +32366,9 @@
         <v>-282835.1867482197</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -32575,11 +32403,9 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -32614,11 +32440,9 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -32653,11 +32477,9 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -32692,11 +32514,9 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -32731,11 +32551,9 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -32770,11 +32588,9 @@
         <v>-269362.3393482196</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
